--- a/testcase/add_phong_tro.xlsx
+++ b/testcase/add_phong_tro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python\SeleniumWebDriver\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Phòng 11</t>
   </si>
   <si>
-    <t>Phòng Đơn</t>
-  </si>
-  <si>
     <t>Thêm thành công</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Vui lòng nhập đúng định dạng</t>
   </si>
   <si>
-    <t>Vui lòng nhập  đủ thông tin được đánh dấu *</t>
-  </si>
-  <si>
     <t>Phòng 01</t>
   </si>
   <si>
@@ -84,6 +78,12 @@
   </si>
   <si>
     <t>Văn minh</t>
+  </si>
+  <si>
+    <t>Phòng ĐƠN</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập đủ thông tin được đánh dấu *</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,13 +490,13 @@
         <v>20000</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -513,11 +513,11 @@
         <v>20000</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -534,13 +534,13 @@
         <v>-100</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -557,11 +557,11 @@
         <v>-100</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -569,20 +569,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,18 +590,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>-1</v>
@@ -618,13 +618,13 @@
         <v>520000</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>-1</v>
@@ -641,11 +641,11 @@
         <v>520000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>-1</v>
@@ -662,13 +662,13 @@
         <v>-300</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
         <v>-1</v>
@@ -685,11 +685,11 @@
         <v>-300</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,20 +697,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
         <v>-1</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,18 +718,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>-1</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -737,20 +737,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <v>120000</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -758,18 +758,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
         <v>120000</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,20 +777,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
         <v>-123</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -798,18 +798,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
         <v>-123</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,18 +817,18 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,16 +836,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -862,13 +862,13 @@
         <v>60000</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -885,11 +885,11 @@
         <v>60000</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -906,13 +906,13 @@
         <v>-12000</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
@@ -929,11 +929,11 @@
         <v>-12000</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -941,20 +941,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,18 +962,18 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>-3</v>
@@ -990,13 +990,13 @@
         <v>123400</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>-3</v>
@@ -1013,11 +1013,11 @@
         <v>123400</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4">
         <f>C301-3</f>
@@ -1035,13 +1035,13 @@
         <v>-1235</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4">
         <f>C302-3</f>
@@ -1059,11 +1059,11 @@
         <v>-1235</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4">
         <f>C303-3</f>
@@ -1079,13 +1079,13 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4">
         <f>C304-3</f>
@@ -1101,11 +1101,11 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1113,20 +1113,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
         <v>18000</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,18 +1134,18 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
         <v>18000</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1153,20 +1153,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4">
         <v>-15</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1174,18 +1174,18 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4">
         <v>-15</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,18 +1193,18 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1212,16 +1212,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,13 +1236,13 @@
         <v>60000</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,11 +1257,11 @@
         <v>60000</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,13 +1276,13 @@
         <v>-6000</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,11 +1297,11 @@
         <v>-6000</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1314,13 +1314,13 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1333,11 +1333,11 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1352,13 +1352,13 @@
         <v>400000</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1373,11 +1373,11 @@
         <v>400000</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1392,13 +1392,13 @@
         <v>-5000</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1413,11 +1413,11 @@
         <v>-5000</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1430,13 +1430,13 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1449,11 +1449,11 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,13 +1466,13 @@
         <v>90000</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1485,11 +1485,11 @@
         <v>90000</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1502,13 +1502,13 @@
         <v>-1200000</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1521,11 +1521,11 @@
         <v>-1200000</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1536,13 +1536,13 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1553,11 +1553,11 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
